--- a/TR-SLL FEA Analysis/Torsional-Stiffness-Test.xlsx
+++ b/TR-SLL FEA Analysis/Torsional-Stiffness-Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Srivatsan\HSA-gripper-files\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\D\Git-First\HSA-Gripper\TR-SLL FEA Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB1CB0-8EC9-42EC-955D-2ED720DAE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8A3B7B-4A62-44BB-8320-EA8D8172F220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1480" windowWidth="19180" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>For t = 0.4 mm</t>
   </si>
@@ -97,6 +97,21 @@
   <si>
     <t>β (in degress) - 0.8 mm</t>
   </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Angular D</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +123,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +143,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -203,6 +226,16 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,235 +557,235 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>0.80461918602377402</c:v>
+                  <c:v>0.6437105822767013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65168011783976743</c:v>
+                  <c:v>0.52135218765832003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60001960756693318</c:v>
+                  <c:v>0.48002200323072947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58276604908239704</c:v>
+                  <c:v>0.46621862701127115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58542438712473099</c:v>
+                  <c:v>0.46834537701098383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59994637548305541</c:v>
+                  <c:v>0.47996341525088221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62430266830527015</c:v>
+                  <c:v>0.49944925025798231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65163963412537251</c:v>
+                  <c:v>0.52131979917856208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68215066605740959</c:v>
+                  <c:v>0.54572981540829191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71606369064536723</c:v>
+                  <c:v>0.57286168949300598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75349322306263011</c:v>
+                  <c:v>0.60280708867801258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79153734110587493</c:v>
+                  <c:v>0.6332443753393896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8315077119381955</c:v>
+                  <c:v>0.66522298181745354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87398969335638055</c:v>
+                  <c:v>0.69921127768348124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91654082468959897</c:v>
+                  <c:v>0.73325517533423523</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96106411352868093</c:v>
+                  <c:v>0.76887724964641369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0046898558654027</c:v>
+                  <c:v>0.80378154148326586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0508225263369759</c:v>
+                  <c:v>0.84069195361403415</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0975738127091383</c:v>
+                  <c:v>0.87809771621001964</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1435973724512238</c:v>
+                  <c:v>0.91492163487946288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1929182868256998</c:v>
+                  <c:v>0.95438427280897387</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2422216302547671</c:v>
+                  <c:v>0.99383336077031803</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2907690774886271</c:v>
+                  <c:v>1.032678151057604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3413441410880951</c:v>
+                  <c:v>1.0731458877950992</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3933599614289933</c:v>
+                  <c:v>1.1147670770792841</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4439594169902172</c:v>
+                  <c:v>1.1552555766948756</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4973394042662542</c:v>
+                  <c:v>1.1979696962789537</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5506586204364547</c:v>
+                  <c:v>1.240635934793056</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6045982415377575</c:v>
+                  <c:v>1.2837994108697615</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6588503927694878</c:v>
+                  <c:v>1.3272138056636986</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7145772659328378</c:v>
+                  <c:v>1.3718092147421685</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7712307480554093</c:v>
+                  <c:v>1.417147100188326</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8231609046041803</c:v>
+                  <c:v>1.4587059417480694</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8844903289695265</c:v>
+                  <c:v>1.5077879741639568</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9356230472617906</c:v>
+                  <c:v>1.5487105161109365</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9977382095315424</c:v>
+                  <c:v>1.5984237255205689</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0579187155826584</c:v>
+                  <c:v>1.646589842961296</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1165665788567902</c:v>
+                  <c:v>1.6935305511845806</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1790078523067762</c:v>
+                  <c:v>1.743508842449573</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2415150899373821</c:v>
+                  <c:v>1.7935414249132333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3044456824048689</c:v>
+                  <c:v>1.8439144252447905</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.430538778638065</c:v>
+                  <c:v>1.9448509231249493</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4949760992916712</c:v>
+                  <c:v>1.9964350701666653</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.559575053875029</c:v>
+                  <c:v>2.0481504351184987</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6241933898024512</c:v>
+                  <c:v>2.099883191167554</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6899829886977664</c:v>
+                  <c:v>2.1525556236386891</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7567821676706967</c:v>
+                  <c:v>2.2060384361979559</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.8926848009543153</c:v>
+                  <c:v>2.3148557000614458</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.9622020902673847</c:v>
+                  <c:v>2.3705218033211182</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.030898476884329</c:v>
+                  <c:v>2.4255330347279371</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.1011044909653607</c:v>
+                  <c:v>2.4817557512734085</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.1730217922404433</c:v>
+                  <c:v>2.5393516907222762</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.2422970671209166</c:v>
+                  <c:v>2.5948344501958647</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3155421217467169</c:v>
+                  <c:v>2.6534995882807308</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3889203952648637</c:v>
+                  <c:v>2.7122745572242164</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4622174027227932</c:v>
+                  <c:v>2.7709876300864615</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.5382283448973602</c:v>
+                  <c:v>2.8318780937171404</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6120294678549389</c:v>
+                  <c:v>2.8910017584112908</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.6876227213062043</c:v>
+                  <c:v>2.9515647172965633</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.766384442019544</c:v>
+                  <c:v>3.014670088443911</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8436843283566562</c:v>
+                  <c:v>3.0766081968856978</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.9224508143590966</c:v>
+                  <c:v>3.1397255948908565</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.0003984205869729</c:v>
+                  <c:v>3.2021910099700985</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.0792181166452153</c:v>
+                  <c:v>3.2653596356754835</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.1596637913115124</c:v>
+                  <c:v>3.3298359595688547</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.2424530290452402</c:v>
+                  <c:v>3.3961955574355578</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.322586413552127</c:v>
+                  <c:v>3.4604312193722482</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.4067920638799389</c:v>
+                  <c:v>3.5279364981990757</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.4886616524058534</c:v>
+                  <c:v>3.5935742798122967</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.5753621742325326</c:v>
+                  <c:v>3.6630909528790458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6619805663523506</c:v>
+                  <c:v>3.7325478021226783</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.7474704399336662</c:v>
+                  <c:v>3.8011057434683275</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.8344322619378994</c:v>
+                  <c:v>3.8708503513674524</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.9216937869426989</c:v>
+                  <c:v>3.9408417757706595</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.014945557782271</c:v>
+                  <c:v>4.0156451785901544</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.1027011253406958</c:v>
+                  <c:v>4.0860467025665885</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.1939858361227396</c:v>
+                  <c:v>4.1592867874793003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,241 +1080,241 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>0.90615443791645123</c:v>
+                  <c:v>0.72494530910463728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61214817117150933</c:v>
+                  <c:v>0.48972524498936093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52529553824435538</c:v>
+                  <c:v>0.42024066934436832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4958325926214896</c:v>
+                  <c:v>0.39666963886872791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49303733116142923</c:v>
+                  <c:v>0.39443336975056426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50422393735908222</c:v>
+                  <c:v>0.40338289872708832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52481173808825432</c:v>
+                  <c:v>0.41985361751852507</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55047907928595707</c:v>
+                  <c:v>0.44038814151041306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58029447374038257</c:v>
+                  <c:v>0.46424129341004428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61336880841238961</c:v>
+                  <c:v>0.49070179499020516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64868200227430761</c:v>
+                  <c:v>0.51895358401575997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68659691332139461</c:v>
+                  <c:v>0.5492869959162</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72560873346915455</c:v>
+                  <c:v>0.58049815886945932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.76610802267426592</c:v>
+                  <c:v>0.61289956727613881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80683185152031389</c:v>
+                  <c:v>0.64548084069402334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84867477252912316</c:v>
+                  <c:v>0.6789576932422583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89237705311269089</c:v>
+                  <c:v>0.71392242379608017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93621321625223453</c:v>
+                  <c:v>0.74899456973514111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98111357284459899</c:v>
+                  <c:v>0.78491847587066543</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0272181201587129</c:v>
+                  <c:v>0.82180619298509294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0734413065244983</c:v>
+                  <c:v>0.85878921645277551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1203457129075334</c:v>
+                  <c:v>0.89631769332636824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1676523635362512</c:v>
+                  <c:v>0.93416844617304917</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2156869830541095</c:v>
+                  <c:v>0.97260212696655468</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2645853577389639</c:v>
+                  <c:v>1.011727425166749</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3136430962011405</c:v>
+                  <c:v>1.0509807690615449</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3630084073171083</c:v>
+                  <c:v>1.0904807759283657</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4139740558594696</c:v>
+                  <c:v>1.1312619159403048</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4643634347533083</c:v>
+                  <c:v>1.1715825762264875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5149788343892581</c:v>
+                  <c:v>1.2120847510185009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5663702742958399</c:v>
+                  <c:v>1.2532086060160401</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6188786832111672</c:v>
+                  <c:v>1.2952270187513142</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6709157422057603</c:v>
+                  <c:v>1.3368690192542634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7235279344865555</c:v>
+                  <c:v>1.3789720701430641</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7762986706909498</c:v>
+                  <c:v>1.4212028371771674</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.830379672067302</c:v>
+                  <c:v>1.4644830691611923</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8833711515645923</c:v>
+                  <c:v>1.5068922837514529</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9382713503766531</c:v>
+                  <c:v>1.5508300302961993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9937266754488192</c:v>
+                  <c:v>1.5952130964852367</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0481361199863728</c:v>
+                  <c:v>1.6387601490015389</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1023749306776738</c:v>
+                  <c:v>1.682171692199953</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1588044114160705</c:v>
+                  <c:v>1.7273377515092279</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2147259039624374</c:v>
+                  <c:v>1.7720984078552484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2711910947018508</c:v>
+                  <c:v>1.8172954840666828</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3281434212946328</c:v>
+                  <c:v>1.8628837712222528</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3858492292839522</c:v>
+                  <c:v>1.9090765447666063</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4416804970578294</c:v>
+                  <c:v>1.9537700990183204</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.4995822788956099</c:v>
+                  <c:v>2.0001225341037849</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5563563532605271</c:v>
+                  <c:v>2.0455736268894236</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.615562558900085</c:v>
+                  <c:v>2.0929733290421004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.673642978438254</c:v>
+                  <c:v>2.1394733048508914</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.7324382095638255</c:v>
+                  <c:v>2.1865471807133114</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7909398775448193</c:v>
+                  <c:v>2.2333876629576608</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8512575536920131</c:v>
+                  <c:v>2.2816839223707222</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9100671800354165</c:v>
+                  <c:v>2.3287744412642986</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.9700767140304438</c:v>
+                  <c:v>2.376827580759028</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0296756130490268</c:v>
+                  <c:v>2.4245537584582544</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0907058322563725</c:v>
+                  <c:v>2.4734280798296155</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.152173986810785</c:v>
+                  <c:v>2.5226551513912154</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.2123387347838994</c:v>
+                  <c:v>2.5708404071958038</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2727168957156318</c:v>
+                  <c:v>2.6191986344892175</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.3335486730515873</c:v>
+                  <c:v>2.6679222908439377</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.394501202569868</c:v>
+                  <c:v>2.7167448358406565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.4497294174770827</c:v>
+                  <c:v>2.7609841554169456</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.5129808465251982</c:v>
+                  <c:v>2.8116525604634286</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.5800814920363533</c:v>
+                  <c:v>2.865407129145531</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.6365556762827325</c:v>
+                  <c:v>2.9106509916298031</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.6996702206919703</c:v>
+                  <c:v>2.9612171380518304</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.7706211957265272</c:v>
+                  <c:v>3.0180647706049037</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8335640284930936</c:v>
+                  <c:v>3.0684988729071434</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.8899464344795596</c:v>
+                  <c:v>3.1136785745363982</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.9508453933839918</c:v>
+                  <c:v>3.1624798673959127</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.0263856661732786</c:v>
+                  <c:v>3.2230175336791271</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0913607144962612</c:v>
+                  <c:v>3.2750914952332439</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.1531513702023002</c:v>
+                  <c:v>3.3246161511123518</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.2083850796483411</c:v>
+                  <c:v>3.3688878279088565</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2769269167439692</c:v>
+                  <c:v>3.4238295532648606</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.349639133966356</c:v>
+                  <c:v>3.4821180256226536</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.3974362493039454</c:v>
+                  <c:v>3.5204359384147925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,7 +1513,395 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$8:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$8:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7545843960243159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9625026472499858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.859119410916808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.062526116143504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.425022710772346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.314434461131242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.514870235602931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.249759283407514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3980-4A02-B8C5-21E9C8AEAEBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1922188768"/>
+        <c:axId val="1922181088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1922188768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922181088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1922181088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922188768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2036,6 +2457,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2069,6 +3006,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FEBCF0-ECE8-C914-5D44-FA6E6C6F2B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2365,67 +3338,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <f>25/2</f>
+        <v>12.5</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="9">
         <f>L8</f>
-        <v>0.80461918602377402</v>
+        <v>0.6437105822767013</v>
       </c>
       <c r="R6" s="9">
         <f>($Q$8-Q6)/$Q$8</f>
-        <v>0.99476159384099094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.99580917589663609</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -2464,14 +3443,26 @@
       </c>
       <c r="Q7" s="9">
         <f>L33</f>
-        <v>1.4439594169902172</v>
+        <v>1.1552555766948756</v>
       </c>
       <c r="R7" s="9">
         <f>($Q$8-Q7)/$Q$8</f>
-        <v>0.99059922254563659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.99247880483922601</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -2494,23 +3485,23 @@
       </c>
       <c r="I8" s="14">
         <f>E8/SQRT($B$6^2+E8^2)</f>
-        <v>1.4042792443252048E-2</v>
+        <v>1.1234632746243124E-2</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ref="J8:J48" si="1">ASIN(I8)</f>
-        <v>1.4043254024038089E-2</v>
+        <v>1.1234869093223547E-2</v>
       </c>
       <c r="K8" s="11">
         <f>ASIN(H8/SQRT($B$6^2+H8^2))</f>
-        <v>1.5815378476811737E-2</v>
+        <v>1.2652682543652928E-2</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" ref="L8:L48" si="2">J8*57.2957795</f>
-        <v>0.80461918602377402</v>
+        <v>0.6437105822767013</v>
       </c>
       <c r="M8" s="15">
         <f>K8*57.2957795</f>
-        <v>0.90615443791645123</v>
+        <v>0.72494530910463728</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>13</v>
@@ -2519,8 +3510,22 @@
         <f>15.36*10</f>
         <v>153.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="19">
+        <v>9.4</v>
+      </c>
+      <c r="W8" s="15">
+        <f>ASIN(V8/SQRT($B$6^2+V8^2))</f>
+        <v>0.64477988047476031</v>
+      </c>
+      <c r="X8" s="15">
+        <f>5/W8</f>
+        <v>7.7545843960243159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="11">
         <v>2</v>
       </c>
@@ -2543,26 +3548,40 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I48" si="3">E9/SQRT($B$6^2+E9^2)</f>
-        <v>1.1373718494247752E-2</v>
+        <v>9.0991866730184192E-3</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="1"/>
-        <v>1.137396372868559E-2</v>
+        <v>9.0993122391906725E-3</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" ref="K9:K72" si="4">ASIN(H9/SQRT($B$6^2+H9^2))</f>
-        <v>1.0684001099444144E-2</v>
+        <v>8.5473179571518166E-3</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="2"/>
-        <v>0.65168011783976743</v>
+        <v>0.52135218765832003</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" ref="M9:M72" si="5">K9*57.2957795</f>
-        <v>0.61214817117150933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.48972524498936093</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="V9" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" ref="W9:W15" si="6">ASIN(V9/SQRT($B$6^2+V9^2))</f>
+        <v>0.55787989100724866</v>
+      </c>
+      <c r="X9" s="15">
+        <f t="shared" ref="X9:X15" si="7">5/W9</f>
+        <v>8.9625026472499858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="11">
         <v>3</v>
       </c>
@@ -2585,29 +3604,43 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>1.0472126316473524E-2</v>
+        <v>8.3778664320289398E-3</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="1"/>
-        <v>1.0472317730958407E-2</v>
+        <v>8.3779644403080243E-3</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="4"/>
-        <v>9.1681366904931508E-3</v>
+        <v>7.3345833325187291E-3</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="2"/>
-        <v>0.60001960756693318</v>
+        <v>0.48002200323072947</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="5"/>
-        <v>0.52529553824435538</v>
+        <v>0.42024066934436832</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="6"/>
+        <v>0.46044249177087393</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="7"/>
+        <v>10.859119410916808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="11">
         <v>4</v>
       </c>
@@ -2630,23 +3663,23 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>1.0171010955213295E-2</v>
+        <v>8.1369602831335205E-3</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="1"/>
-        <v>1.0171186327649091E-2</v>
+        <v>8.1370500773319809E-3</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="4"/>
-        <v>8.6539112819206798E-3</v>
+        <v>6.9231912425369467E-3</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" si="2"/>
-        <v>0.58276604908239704</v>
+        <v>0.46621862701127115</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" si="5"/>
-        <v>0.4958325926214896</v>
+        <v>0.39666963886872791</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>15</v>
@@ -2657,8 +3690,22 @@
       <c r="S11" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="V11" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.41450687458478591</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="7"/>
+        <v>12.062526116143504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="11">
         <v>5</v>
       </c>
@@ -2681,23 +3728,23 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>1.021740529580803E-2</v>
+        <v>8.1740778385495216E-3</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="1"/>
-        <v>1.0217583079129431E-2</v>
+        <v>8.1741688672022309E-3</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="4"/>
-        <v>8.6051247659773827E-3</v>
+        <v>6.8841609834554085E-3</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" si="2"/>
-        <v>0.58542438712473099</v>
+        <v>0.46834537701098383</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="5"/>
-        <v>0.49303733116142923</v>
+        <v>0.39443336975056426</v>
       </c>
       <c r="O12" s="5">
         <v>30</v>
@@ -2710,14 +3757,28 @@
       </c>
       <c r="R12" s="9">
         <f>K8</f>
-        <v>1.5815378476811737E-2</v>
+        <v>1.2652682543652928E-2</v>
       </c>
       <c r="S12" s="9">
         <f>Q12/R12</f>
-        <v>316.14798263164693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>395.17311706426966</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="V12" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="6"/>
+        <v>0.3241486313344718</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="7"/>
+        <v>15.425022710772346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="11">
         <v>6</v>
       </c>
@@ -2732,7 +3793,7 @@
         <v>0.45416026043800001</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" ref="G13:G35" si="6">(E12-E13)/E12*100</f>
+        <f t="shared" ref="G13:G35" si="8">(E12-E13)/E12*100</f>
         <v>-2.4807707657069153</v>
       </c>
       <c r="H13" s="12">
@@ -2740,23 +3801,23 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>1.0470848245568777E-2</v>
+        <v>8.3768439147603405E-3</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="1"/>
-        <v>1.047103958997635E-2</v>
+        <v>8.3769418871573638E-3</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" si="4"/>
-        <v>8.8003678762950104E-3</v>
+        <v>7.0403597306340571E-3</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="2"/>
-        <v>0.59994637548305541</v>
+        <v>0.47996341525088221</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="5"/>
-        <v>0.50422393735908222</v>
+        <v>0.40338289872708832</v>
       </c>
       <c r="O13" s="5">
         <v>2</v>
@@ -2769,14 +3830,28 @@
       </c>
       <c r="R13" s="9">
         <f>K36</f>
-        <v>2.5557963388094025E-2</v>
+        <v>2.0447973418818526E-2</v>
       </c>
       <c r="S13" s="9">
         <f>Q13/R13</f>
-        <v>195.63374139307243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244.52300957113127</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="6"/>
+        <v>0.2730087030867106</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="7"/>
+        <v>18.314434461131242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="11">
         <v>7</v>
       </c>
@@ -2791,7 +3866,7 @@
         <v>0.46598094987599997</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.0600600535911946</v>
       </c>
       <c r="H14" s="12">
@@ -2799,23 +3874,23 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>1.0895921485908821E-2</v>
+        <v>8.7169234696190864E-3</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="1"/>
-        <v>1.0896137093400923E-2</v>
+        <v>8.7170338656092864E-3</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="4"/>
-        <v>9.159692784845597E-3</v>
+        <v>7.3278280037803664E-3</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="2"/>
-        <v>0.62430266830527015</v>
+        <v>0.49944925025798231</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="5"/>
-        <v>0.52481173808825432</v>
+        <v>0.41985361751852507</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>13</v>
@@ -2831,8 +3906,22 @@
         <f>Q14/R14</f>
         <v>1.8650969893581486</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="V14" s="19">
+        <v>2</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15865526218640139</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="7"/>
+        <v>31.514870235602931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="11">
         <v>8</v>
       </c>
@@ -2847,7 +3936,7 @@
         <v>0.48075690754299999</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.3791697960114933</v>
       </c>
       <c r="H15" s="12">
@@ -2855,26 +3944,40 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>1.1373011965838335E-2</v>
+        <v>9.0986214108072973E-3</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="1"/>
-        <v>1.1373257154575801E-2</v>
+        <v>9.0987469535790521E-3</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="4"/>
-        <v>9.6076723990805822E-3</v>
+        <v>7.6862230578504135E-3</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="2"/>
-        <v>0.65163963412537251</v>
+        <v>0.52131979917856208</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="5"/>
-        <v>0.55047907928595707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.44038814151041306</v>
+      </c>
+      <c r="U15" s="19">
+        <v>1</v>
+      </c>
+      <c r="V15" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10362745999687167</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="7"/>
+        <v>48.249759283407514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="11">
         <v>9</v>
       </c>
@@ -2889,7 +3992,7 @@
         <v>0.49820250467400001</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.6826266051229979</v>
       </c>
       <c r="H16" s="12">
@@ -2897,26 +4000,26 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>1.1905493853146827E-2</v>
+        <v>9.5246380909579462E-3</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>1.1905775120092565E-2</v>
+        <v>9.5247821073503654E-3</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="4"/>
-        <v>1.0128049200209984E-2</v>
+        <v>8.1025390955723753E-3</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="2"/>
-        <v>0.68215066605740959</v>
+        <v>0.54572981540829191</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="5"/>
-        <v>0.58029447374038257</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.46424129341004428</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="11">
         <v>10</v>
       </c>
@@ -2931,7 +4034,7 @@
         <v>0.51847193523599999</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.9719914076748992</v>
       </c>
       <c r="H17" s="12">
@@ -2939,26 +4042,26 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>1.2497343722375626E-2</v>
+        <v>9.9981560604930474E-3</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="1"/>
-        <v>1.2497669058597366E-2</v>
+        <v>9.998322642473273E-3</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="4"/>
-        <v>1.0705305238274829E-2</v>
+        <v>8.5643619699807931E-3</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>0.71606369064536723</v>
+        <v>0.57286168949300598</v>
       </c>
       <c r="M17" s="15">
         <f t="shared" si="5"/>
-        <v>0.61336880841238961</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.49070179499020516</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="11">
         <v>11</v>
       </c>
@@ -2973,7 +4076,7 @@
         <v>0.54112931310900003</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.2277111112641457</v>
       </c>
       <c r="H18" s="12">
@@ -2981,26 +4084,26 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>1.3150558570633445E-2</v>
+        <v>1.0520774359573356E-2</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="1"/>
-        <v>1.3150937636909716E-2</v>
+        <v>1.0520968454195E-2</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" si="4"/>
-        <v>1.1321636740701078E-2</v>
+        <v>9.0574487081681119E-3</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="2"/>
-        <v>0.75349322306263011</v>
+        <v>0.60280708867801258</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" si="5"/>
-        <v>0.64868200227430761</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.51895358401575997</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="11">
         <v>12</v>
       </c>
@@ -3015,7 +4118,7 @@
         <v>0.56472572741299998</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.0496595731670713</v>
       </c>
       <c r="H19" s="12">
@@ -3023,26 +4126,26 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>1.3814493326690295E-2</v>
+        <v>1.1051974316902666E-2</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>1.3814932757933329E-2</v>
+        <v>1.1052199321930677E-2</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" si="4"/>
-        <v>1.198337677422461E-2</v>
+        <v>9.5868666193153016E-3</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" si="2"/>
-        <v>0.79153734110587493</v>
+        <v>0.6332443753393896</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="5"/>
-        <v>0.68659691332139461</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.5492869959162</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="11">
         <v>13</v>
       </c>
@@ -3057,7 +4160,7 @@
         <v>0.58949989007199999</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.0504059142302156</v>
       </c>
       <c r="H20" s="12">
@@ -3065,26 +4168,26 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>1.4512037913377566E-2</v>
+        <v>1.1610070452015873E-2</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="1"/>
-        <v>1.4512547332359715E-2</v>
+        <v>1.1610331295299918E-2</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="4"/>
-        <v>1.2664261483154349E-2</v>
+        <v>1.0131604176350534E-2</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="2"/>
-        <v>0.8315077119381955</v>
+        <v>0.66522298181745354</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="5"/>
-        <v>0.72560873346915455</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.58049815886945932</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="11">
         <v>14</v>
       </c>
@@ -3099,7 +4202,7 @@
         <v>0.616027707782</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.1098037059240857</v>
       </c>
       <c r="H21" s="12">
@@ -3107,26 +4210,26 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>1.5253406226586688E-2</v>
+        <v>1.2203236062915495E-2</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="1"/>
-        <v>1.525399778104739E-2</v>
+        <v>1.2203538965439527E-2</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="4"/>
-        <v>1.3371107424662333E-2</v>
+        <v>1.0697115435459583E-2</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="2"/>
-        <v>0.87398969335638055</v>
+        <v>0.69921127768348124</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="5"/>
-        <v>0.76610802267426592</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.61289956727613881</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="11">
         <v>15</v>
       </c>
@@ -3141,7 +4244,7 @@
         <v>0.64262814422299996</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.8694192864452193</v>
       </c>
       <c r="H22" s="12">
@@ -3149,26 +4252,26 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1.5995972893547133E-2</v>
+        <v>1.2797367734304517E-2</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="1"/>
-        <v>1.5996655123430147E-2</v>
+        <v>1.2797717069792814E-2</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="4"/>
-        <v>1.4081872322206802E-2</v>
+        <v>1.1265765931224015E-2</v>
       </c>
       <c r="L22" s="11">
         <f t="shared" si="2"/>
-        <v>0.91654082468959897</v>
+        <v>0.73325517533423523</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="5"/>
-        <v>0.80683185152031389</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.64548084069402334</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="11">
         <v>16</v>
       </c>
@@ -3183,7 +4286,7 @@
         <v>0.669466211363</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.8586431260481744</v>
       </c>
       <c r="H23" s="12">
@@ -3191,26 +4294,26 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>1.6772946547722625E-2</v>
+        <v>1.3419036791549353E-2</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="1"/>
-        <v>1.6773733107666E-2</v>
+        <v>1.3419439553072381E-2</v>
       </c>
       <c r="K23" s="11">
         <f t="shared" si="4"/>
-        <v>1.481216906262918E-2</v>
+        <v>1.1850047231528778E-2</v>
       </c>
       <c r="L23" s="11">
         <f t="shared" si="2"/>
-        <v>0.96106411352868093</v>
+        <v>0.76887724964641369</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="5"/>
-        <v>0.84867477252912316</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.6789576932422583</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="11">
         <v>17</v>
       </c>
@@ -3225,7 +4328,7 @@
         <v>0.69816060033399996</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.540226977699108</v>
       </c>
       <c r="H24" s="12">
@@ -3233,26 +4336,26 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>1.7534247342351837E-2</v>
+        <v>1.4028174228124511E-2</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="1"/>
-        <v>1.7535145950242331E-2</v>
+        <v>1.4028634368841527E-2</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" si="4"/>
-        <v>1.5574917749616982E-2</v>
+        <v>1.2460296901904968E-2</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="2"/>
-        <v>1.0046898558654027</v>
+        <v>0.80378154148326586</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="5"/>
-        <v>0.89237705311269089</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.71392242379608017</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="11">
         <v>18</v>
       </c>
@@ -3267,7 +4370,7 @@
         <v>0.72735048277600001</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.5927397095016662</v>
       </c>
       <c r="H25" s="12">
@@ -3275,26 +4378,26 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>1.8339284780603232E-2</v>
+        <v>1.4672316102911042E-2</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="1"/>
-        <v>1.8340312942892695E-2</v>
+        <v>1.4672842588938582E-2</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="4"/>
-        <v>1.6340003128018084E-2</v>
+        <v>1.3072421324421307E-2</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="2"/>
-        <v>1.0508225263369759</v>
+        <v>0.84069195361403415</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="5"/>
-        <v>0.93621321625223453</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.74899456973514111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="11">
         <v>19</v>
       </c>
@@ -3309,7 +4412,7 @@
         <v>0.75673805746800005</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.4500837043145349</v>
       </c>
       <c r="H26" s="12">
@@ -3317,26 +4420,26 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>1.9155105234030651E-2</v>
+        <v>1.5325096370474313E-2</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>1.9156276819815993E-2</v>
+        <v>1.5325696305606935E-2</v>
       </c>
       <c r="K26" s="11">
         <f t="shared" si="4"/>
-        <v>1.712366218605332E-2</v>
+        <v>1.3699411766806759E-2</v>
       </c>
       <c r="L26" s="11">
         <f t="shared" si="2"/>
-        <v>1.0975738127091383</v>
+        <v>0.87809771621001964</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="5"/>
-        <v>0.98111357284459899</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.78491847587066543</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="11">
         <v>20</v>
       </c>
@@ -3351,7 +4454,7 @@
         <v>0.78613096737800003</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.1943000818795806</v>
       </c>
       <c r="H27" s="12">
@@ -3359,26 +4462,26 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>1.995821423979784E-2</v>
+        <v>1.5967716309470702E-2</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="1"/>
-        <v>1.9959539470987105E-2</v>
+        <v>1.5968394930022077E-2</v>
       </c>
       <c r="K27" s="11">
         <f t="shared" si="4"/>
-        <v>1.7928338337009849E-2</v>
+        <v>1.434322388414478E-2</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" si="2"/>
-        <v>1.1435973724512238</v>
+        <v>0.91492163487946288</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="5"/>
-        <v>1.0272181201587129</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.82180619298509294</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="11">
         <v>21</v>
       </c>
@@ -3393,7 +4496,7 @@
         <v>0.81714013240899996</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.314007449036759</v>
       </c>
       <c r="H28" s="12">
@@ -3401,26 +4504,26 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>2.0818847624234443E-2</v>
+        <v>1.6656377620616433E-2</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" si="1"/>
-        <v>2.0820351817112458E-2</v>
+        <v>1.6657147893571703E-2</v>
       </c>
       <c r="K28" s="11">
         <f t="shared" si="4"/>
-        <v>1.873508513003996E-2</v>
+        <v>1.4988699411145553E-2</v>
       </c>
       <c r="L28" s="11">
         <f t="shared" si="2"/>
-        <v>1.1929182868256998</v>
+        <v>0.95438427280897387</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="5"/>
-        <v>1.0734413065244983</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.85878921645277551</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="11">
         <v>22</v>
       </c>
@@ -3435,7 +4538,7 @@
         <v>0.84851457244100004</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.1342723126497365</v>
       </c>
       <c r="H29" s="12">
@@ -3443,26 +4546,26 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>2.1679158983174573E-2</v>
+        <v>1.734479457431766E-2</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="1"/>
-        <v>2.1680857492387674E-2</v>
+        <v>1.7345664365563226E-2</v>
       </c>
       <c r="K29" s="11">
         <f t="shared" si="4"/>
-        <v>1.9553721455304283E-2</v>
+        <v>1.5643694895997848E-2</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" si="2"/>
-        <v>1.2422216302547671</v>
+        <v>0.99383336077031803</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="5"/>
-        <v>1.1203457129075334</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.89631769332636824</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11">
         <v>23</v>
       </c>
@@ -3477,7 +4580,7 @@
         <v>0.87943214195300001</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.9094125193105844</v>
       </c>
       <c r="H30" s="12">
@@ -3485,26 +4588,26 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>2.2526264761569346E-2</v>
+        <v>1.8022658035614307E-2</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="1"/>
-        <v>2.2528170290250209E-2</v>
+        <v>1.8023633853477879E-2</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="4"/>
-        <v>2.0379378267054576E-2</v>
+        <v>1.6304315157681888E-2</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="2"/>
-        <v>1.2907690774886271</v>
+        <v>1.032678151057604</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" si="5"/>
-        <v>1.1676523635362512</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.93416844617304917</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="11">
         <v>24</v>
       </c>
@@ -3519,7 +4622,7 @@
         <v>0.91160024064699996</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.9196165895566999</v>
       </c>
       <c r="H31" s="12">
@@ -3527,26 +4630,26 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>2.3408733266439666E-2</v>
+        <v>1.8728834011247319E-2</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="1"/>
-        <v>2.3410871669668008E-2</v>
+        <v>1.8729929100538709E-2</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" si="4"/>
-        <v>2.1217740532775357E-2</v>
+        <v>1.6975109431342228E-2</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" si="2"/>
-        <v>1.3413441410880951</v>
+        <v>1.0731458877950992</v>
       </c>
       <c r="M31" s="15">
         <f t="shared" si="5"/>
-        <v>1.2156869830541095</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.97260212696655468</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="11">
         <v>25</v>
       </c>
@@ -3561,7 +4664,7 @@
         <v>0.94453160735800001</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.8793885592477033</v>
       </c>
       <c r="H32" s="12">
@@ -3569,26 +4672,26 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>2.4316322053379552E-2</v>
+        <v>1.9455128382321246E-2</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="1"/>
-        <v>2.4318718997949809E-2</v>
+        <v>1.9456355892309381E-2</v>
       </c>
       <c r="K32" s="11">
         <f t="shared" si="4"/>
-        <v>2.2071178170094775E-2</v>
+        <v>1.7657974705916148E-2</v>
       </c>
       <c r="L32" s="11">
         <f t="shared" si="2"/>
-        <v>1.3933599614289933</v>
+        <v>1.1147670770792841</v>
       </c>
       <c r="M32" s="15">
         <f t="shared" si="5"/>
-        <v>1.2645853577389639</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.011727425166749</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="11">
         <v>26</v>
       </c>
@@ -3603,7 +4706,7 @@
         <v>0.97695170953199995</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.6329816184052968</v>
       </c>
       <c r="H33" s="12">
@@ -3611,26 +4714,26 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>2.5199178427913235E-2</v>
+        <v>2.0161647345232906E-2</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="1"/>
-        <v>2.5201846097411367E-2</v>
+        <v>2.0163013519955263E-2</v>
       </c>
       <c r="K33" s="11">
         <f t="shared" si="4"/>
-        <v>2.2927397230037519E-2</v>
+        <v>1.8343074799454379E-2</v>
       </c>
       <c r="L33" s="11">
         <f t="shared" si="2"/>
-        <v>1.4439594169902172</v>
+        <v>1.1552555766948756</v>
       </c>
       <c r="M33" s="15">
         <f t="shared" si="5"/>
-        <v>1.3136430962011405</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.0509807690615449</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="11">
         <v>27</v>
       </c>
@@ -3645,7 +4748,7 @@
         <v>1.0109307569999999</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.6984326029001244</v>
       </c>
       <c r="H34" s="12">
@@ -3653,26 +4756,26 @@
       </c>
       <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>2.6130528042524335E-2</v>
+        <v>2.0906992161828574E-2</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="1"/>
-        <v>2.6133502630263615E-2</v>
+        <v>2.0908515543958235E-2</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="4"/>
-        <v>2.3788984445479239E-2</v>
+        <v>1.9032479973998182E-2</v>
       </c>
       <c r="L34" s="11">
         <f t="shared" si="2"/>
-        <v>1.4973394042662542</v>
+        <v>1.1979696962789537</v>
       </c>
       <c r="M34" s="15">
         <f t="shared" si="5"/>
-        <v>1.3630084073171083</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.0904807759283657</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="11">
         <v>28</v>
       </c>
@@ -3687,7 +4790,7 @@
         <v>1.0448194959999999</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.562640065224699</v>
       </c>
       <c r="H35" s="12">
@@ -3695,26 +4798,26 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>2.7060794708810794E-2</v>
+        <v>2.1651489872465811E-2</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="1"/>
-        <v>2.7064098507228698E-2</v>
+        <v>2.1653181885640565E-2</v>
       </c>
       <c r="K35" s="11">
         <f t="shared" si="4"/>
-        <v>2.4678502818160794E-2</v>
+        <v>1.9744245140085836E-2</v>
       </c>
       <c r="L35" s="11">
         <f t="shared" si="2"/>
-        <v>1.5506586204364547</v>
+        <v>1.240635934793056</v>
       </c>
       <c r="M35" s="15">
         <f t="shared" si="5"/>
-        <v>1.4139740558594696</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1312619159403048</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="11">
         <v>29</v>
       </c>
@@ -3733,26 +4836,26 @@
       </c>
       <c r="I36" s="11">
         <f t="shared" si="3"/>
-        <v>2.8001861804587243E-2</v>
+        <v>2.2404651831801691E-2</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="1"/>
-        <v>2.8005522492939597E-2</v>
+        <v>2.2406526659956891E-2</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="4"/>
-        <v>2.5557963388094025E-2</v>
+        <v>2.0447973418818526E-2</v>
       </c>
       <c r="L36" s="11">
         <f t="shared" si="2"/>
-        <v>1.6045982415377575</v>
+        <v>1.2837994108697615</v>
       </c>
       <c r="M36" s="15">
         <f t="shared" si="5"/>
-        <v>1.4643634347533083</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1715825762264875</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="11">
         <v>30</v>
       </c>
@@ -3768,26 +4871,26 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>2.89483564771097E-2</v>
+        <v>2.3162179258965916E-2</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="1"/>
-        <v>2.8952401158439389E-2</v>
+        <v>2.3164250792044788E-2</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="4"/>
-        <v>2.6441368764155797E-2</v>
+        <v>2.1154869723318814E-2</v>
       </c>
       <c r="L37" s="11">
         <f t="shared" si="2"/>
-        <v>1.6588503927694878</v>
+        <v>1.3272138056636986</v>
       </c>
       <c r="M37" s="15">
         <f t="shared" si="5"/>
-        <v>1.5149788343892581</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2120847510185009</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="11">
         <v>31</v>
       </c>
@@ -3803,26 +4906,26 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>2.9920552434558229E-2</v>
+        <v>2.394030007275378E-2</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="1"/>
-        <v>2.9925018577203189E-2</v>
+        <v>2.3942587511915577E-2</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="4"/>
-        <v>2.7338318598071256E-2</v>
+        <v>2.1872616394302481E-2</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="2"/>
-        <v>1.7145772659328378</v>
+        <v>1.3718092147421685</v>
       </c>
       <c r="M38" s="15">
         <f t="shared" si="5"/>
-        <v>1.5663702742958399</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2532086060160401</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="11">
         <v>32</v>
       </c>
@@ -3838,26 +4941,26 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>3.090888474182751E-2</v>
+        <v>2.4731361079005254E-2</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="1"/>
-        <v>3.0913808373187579E-2</v>
+        <v>2.4733882889023718E-2</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="4"/>
-        <v>2.8254763218836514E-2</v>
+        <v>2.260597604316238E-2</v>
       </c>
       <c r="L39" s="11">
         <f t="shared" si="2"/>
-        <v>1.7712307480554093</v>
+        <v>1.417147100188326</v>
       </c>
       <c r="M39" s="15">
         <f t="shared" si="5"/>
-        <v>1.6188786832111672</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2952270187513142</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="11">
         <v>33</v>
       </c>
@@ -3873,26 +4976,26 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>3.1814791086031378E-2</v>
+        <v>2.5456471271271149E-2</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="1"/>
-        <v>3.1820160586246676E-2</v>
+        <v>2.5459221507721515E-2</v>
       </c>
       <c r="K40" s="11">
         <f t="shared" si="4"/>
-        <v>2.9162981231554069E-2</v>
+        <v>2.3332766059221924E-2</v>
       </c>
       <c r="L40" s="11">
         <f t="shared" si="2"/>
-        <v>1.8231609046041803</v>
+        <v>1.4587059417480694</v>
       </c>
       <c r="M40" s="15">
         <f t="shared" si="5"/>
-        <v>1.6709157422057603</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.3368690192542634</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="11">
         <v>34</v>
       </c>
@@ -3908,26 +5011,26 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>3.2884631182918622E-2</v>
+        <v>2.6312827284488517E-2</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="1"/>
-        <v>3.2890560970019203E-2</v>
+        <v>2.6315864577144934E-2</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="4"/>
-        <v>3.0081237213755954E-2</v>
+        <v>2.4067602922534008E-2</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="2"/>
-        <v>1.8844903289695265</v>
+        <v>1.5077879741639568</v>
       </c>
       <c r="M41" s="15">
         <f t="shared" si="5"/>
-        <v>1.7235279344865555</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.3789720701430641</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="11">
         <v>35</v>
       </c>
@@ -3943,26 +5046,26 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>3.3776569589834868E-2</v>
+        <v>2.7026806309972947E-2</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" si="1"/>
-        <v>3.3782995259917716E-2</v>
+        <v>2.7030097672568299E-2</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" si="4"/>
-        <v>3.1002260309434305E-2</v>
+        <v>2.4804668853090087E-2</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" si="2"/>
-        <v>1.9356230472617906</v>
+        <v>1.5487105161109365</v>
       </c>
       <c r="M42" s="15">
         <f t="shared" si="5"/>
-        <v>1.7762986706909498</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.4212028371771674</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="11">
         <v>36</v>
       </c>
@@ -3978,26 +5081,26 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>3.4860045040134444E-2</v>
+        <v>2.7894138265987207E-2</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="1"/>
-        <v>3.4867109357182971E-2</v>
+        <v>2.7897756858697925E-2</v>
       </c>
       <c r="K43" s="11">
         <f t="shared" si="4"/>
-        <v>3.1946151846442755E-2</v>
+        <v>2.5560051402410751E-2</v>
       </c>
       <c r="L43" s="11">
         <f t="shared" si="2"/>
-        <v>1.9977382095315424</v>
+        <v>1.5984237255205689</v>
       </c>
       <c r="M43" s="15">
         <f t="shared" si="5"/>
-        <v>1.830379672067302</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.4644830691611923</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="11">
         <v>37</v>
       </c>
@@ -4013,26 +5116,26 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>3.5909735196752758E-2</v>
+        <v>2.873445853377176E-2</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="1"/>
-        <v>3.591745733353114E-2</v>
+        <v>2.8738414196132822E-2</v>
       </c>
       <c r="K44" s="11">
         <f t="shared" si="4"/>
-        <v>3.2871027639384716E-2</v>
+        <v>2.6300231830364625E-2</v>
       </c>
       <c r="L44" s="11">
         <f t="shared" si="2"/>
-        <v>2.0579187155826584</v>
+        <v>1.646589842961296</v>
       </c>
       <c r="M44" s="15">
         <f t="shared" si="5"/>
-        <v>1.8833711515645923</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.5068922837514529</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="11">
         <v>38</v>
       </c>
@@ -4048,26 +5151,26 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>3.6932654336917191E-2</v>
+        <v>2.955338041795972E-2</v>
       </c>
       <c r="J45" s="11">
         <f t="shared" si="1"/>
-        <v>3.6941055647157925E-2</v>
+        <v>2.955768410803418E-2</v>
       </c>
       <c r="K45" s="11">
         <f t="shared" si="4"/>
-        <v>3.3829216868873441E-2</v>
+        <v>2.7067090173652306E-2</v>
       </c>
       <c r="L45" s="11">
         <f t="shared" si="2"/>
-        <v>2.1165665788567902</v>
+        <v>1.6935305511845806</v>
       </c>
       <c r="M45" s="15">
         <f t="shared" si="5"/>
-        <v>1.9382713503766531</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.5508300302961993</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="11">
         <v>39</v>
       </c>
@@ -4083,26 +5186,26 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>3.8021694487795743E-2</v>
+        <v>3.0425273789967053E-2</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="1"/>
-        <v>3.8030861458247134E-2</v>
+        <v>3.0429969845328187E-2</v>
       </c>
       <c r="K46" s="11">
         <f t="shared" si="4"/>
-        <v>3.4797094879367496E-2</v>
+        <v>2.784172081095845E-2</v>
       </c>
       <c r="L46" s="11">
         <f t="shared" si="2"/>
-        <v>2.1790078523067762</v>
+        <v>1.743508842449573</v>
       </c>
       <c r="M46" s="15">
         <f t="shared" si="5"/>
-        <v>1.9937266754488192</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.5952130964852367</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="11">
         <v>40</v>
       </c>
@@ -4118,26 +5221,26 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>3.9111839892440735E-2</v>
+        <v>3.1298091107891453E-2</v>
       </c>
       <c r="J47" s="11">
         <f t="shared" si="1"/>
-        <v>3.9121818561476805E-2</v>
+        <v>3.1303203142794021E-2</v>
       </c>
       <c r="K47" s="11">
         <f t="shared" si="4"/>
-        <v>3.5746718830945878E-2</v>
+        <v>2.8601760257080347E-2</v>
       </c>
       <c r="L47" s="11">
         <f t="shared" si="2"/>
-        <v>2.2415150899373821</v>
+        <v>1.7935414249132333</v>
       </c>
       <c r="M47" s="15">
         <f t="shared" si="5"/>
-        <v>2.0481361199863728</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6387601490015389</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="11">
         <v>41</v>
       </c>
@@ -4153,44 +5256,44 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>4.0209321707984941E-2</v>
+        <v>3.2176822896569417E-2</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="1"/>
-        <v>4.0220164600515973E-2</v>
+        <v>3.2182377852888633E-2</v>
       </c>
       <c r="K48" s="11">
         <f t="shared" si="4"/>
-        <v>3.6693364660091127E-2</v>
+        <v>2.9359434619437422E-2</v>
       </c>
       <c r="L48" s="11">
         <f t="shared" si="2"/>
-        <v>2.3044456824048689</v>
+        <v>1.8439144252447905</v>
       </c>
       <c r="M48" s="15">
         <f t="shared" si="5"/>
-        <v>2.1023749306776738</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.682171692199953</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H49" s="12">
         <v>0.37696085000335799</v>
       </c>
       <c r="K49" s="11">
         <f t="shared" si="4"/>
-        <v>3.7678244894391748E-2</v>
+        <v>3.0147731064715296E-2</v>
       </c>
       <c r="M49" s="15">
         <f t="shared" si="5"/>
-        <v>2.1588044114160705</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.7273377515092279</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="11">
         <v>43</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ref="D50:D55" si="7">C50+1</f>
+        <f t="shared" ref="D50:D55" si="9">C50+1</f>
         <v>44</v>
       </c>
       <c r="E50" s="11">
@@ -4200,32 +5303,32 @@
         <v>0.38673522351363299</v>
       </c>
       <c r="I50" s="11">
-        <f t="shared" ref="I50:I55" si="8">E50/SQRT($B$6^2+E50^2)</f>
-        <v>4.2408182468658628E-2</v>
+        <f t="shared" ref="I50:I55" si="10">E50/SQRT($B$6^2+E50^2)</f>
+        <v>3.3937534070294449E-2</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" ref="J50:J55" si="9">ASIN(I50)</f>
-        <v>4.2420904294321798E-2</v>
+        <f t="shared" ref="J50:J55" si="11">ASIN(I50)</f>
+        <v>3.3944052076731922E-2</v>
       </c>
       <c r="K50" s="11">
         <f t="shared" si="4"/>
-        <v>3.8654259062178169E-2</v>
+        <v>3.0928951893485424E-2</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:L55" si="10">J50*57.2957795</f>
-        <v>2.430538778638065</v>
+        <f t="shared" ref="L50:L55" si="12">J50*57.2957795</f>
+        <v>1.9448509231249493</v>
       </c>
       <c r="M50" s="15">
         <f t="shared" si="5"/>
-        <v>2.2147259039624374</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.7720984078552484</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="11">
         <v>44</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="E51" s="11">
@@ -4235,32 +5338,32 @@
         <v>0.39660537740057</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" si="8"/>
-        <v>4.353178705441231E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4837314782343427E-2</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="9"/>
-        <v>4.3545547701147359E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.4844365284648328E-2</v>
       </c>
       <c r="K51" s="11">
         <f t="shared" si="4"/>
-        <v>3.9639762553572565E-2</v>
+        <v>3.1717789685829875E-2</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="10"/>
-        <v>2.4949760992916712</v>
+        <f t="shared" si="12"/>
+        <v>1.9964350701666653</v>
       </c>
       <c r="M51" s="15">
         <f t="shared" si="5"/>
-        <v>2.2711910947018508</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.8172954840666828</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="11">
         <v>45</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="E52" s="11">
@@ -4270,32 +5373,32 @@
         <v>0.406561464629207</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="8"/>
-        <v>4.4658154810130878E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5739355978093384E-2</v>
       </c>
       <c r="J52" s="11">
-        <f t="shared" si="9"/>
-        <v>4.4673012152230671E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.5746968677134387E-2</v>
       </c>
       <c r="K52" s="11">
         <f t="shared" si="4"/>
-        <v>4.0633768169514695E-2</v>
+        <v>3.2513455397220885E-2</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="10"/>
-        <v>2.559575053875029</v>
+        <f t="shared" si="12"/>
+        <v>2.0481504351184987</v>
       </c>
       <c r="M52" s="15">
         <f t="shared" si="5"/>
-        <v>2.3281434212946328</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.8628837712222528</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="11">
         <v>46</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="E53" s="11">
@@ -4305,32 +5408,32 @@
         <v>0.41665009212336401</v>
       </c>
       <c r="I53" s="11">
-        <f t="shared" si="8"/>
-        <v>4.5784803711013858E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.6641671385323905E-2</v>
       </c>
       <c r="J53" s="11">
-        <f t="shared" si="9"/>
-        <v>4.5800814871581441E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.6649875601527576E-2</v>
       </c>
       <c r="K53" s="11">
         <f t="shared" si="4"/>
-        <v>4.1640924516681929E-2</v>
+        <v>3.3319671386382067E-2</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="10"/>
-        <v>2.6241933898024512</v>
+        <f t="shared" si="12"/>
+        <v>2.099883191167554</v>
       </c>
       <c r="M53" s="15">
         <f t="shared" si="5"/>
-        <v>2.3858492292839522</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.9090765447666063</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="11">
         <v>47</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="E54" s="11">
@@ -4340,35 +5443,35 @@
         <v>0.42641180202879903</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="8"/>
-        <v>4.6931814255861445E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.7560345800498558E-2</v>
       </c>
       <c r="J54" s="11">
-        <f t="shared" si="9"/>
-        <v>4.6949059986133294E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.7569182973393164E-2</v>
       </c>
       <c r="K54" s="11">
         <f t="shared" si="4"/>
-        <v>4.2615363965121188E-2</v>
+        <v>3.4099721062671298E-2</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" si="10"/>
-        <v>2.6899829886977664</v>
+        <f t="shared" si="12"/>
+        <v>2.1525556236386891</v>
       </c>
       <c r="M54" s="15">
         <f t="shared" si="5"/>
-        <v>2.4416804970578294</v>
+        <v>1.9537700990183204</v>
       </c>
       <c r="O54" s="9">
         <v>0.28960493573518398</v>
       </c>
     </row>
-    <row r="55" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C55" s="11">
         <v>48</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="E55" s="11">
@@ -4378,51 +5481,51 @@
         <v>0.43653638414264101</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="8"/>
-        <v>4.8096363034365479E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8493121794568784E-2</v>
       </c>
       <c r="J55" s="11">
-        <f t="shared" si="9"/>
-        <v>4.8114925597106097E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.8502634145992476E-2</v>
       </c>
       <c r="K55" s="11">
         <f t="shared" si="4"/>
-        <v>4.3625940701192654E-2</v>
+        <v>3.4908723671414316E-2</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="10"/>
-        <v>2.7567821676706967</v>
+        <f t="shared" si="12"/>
+        <v>2.2060384361979559</v>
       </c>
       <c r="M55" s="15">
         <f t="shared" si="5"/>
-        <v>2.4995822788956099</v>
+        <v>2.0001225341037849</v>
       </c>
       <c r="O55" s="9">
         <v>0.299339544633207</v>
       </c>
     </row>
-    <row r="56" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H56" s="12">
         <v>0.44646464501101701</v>
       </c>
       <c r="K56" s="11">
         <f t="shared" si="4"/>
-        <v>4.4616835228858821E-2</v>
+        <v>3.5701994889334274E-2</v>
       </c>
       <c r="M56" s="15">
         <f t="shared" si="5"/>
-        <v>2.5563563532605271</v>
+        <v>2.0455736268894236</v>
       </c>
       <c r="O56" s="9">
         <v>0.30923659872357601</v>
       </c>
     </row>
-    <row r="57" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="11">
         <v>50</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" ref="D57:D86" si="11">C57+1</f>
+        <f t="shared" ref="D57:D86" si="13">C57+1</f>
         <v>51</v>
       </c>
       <c r="E57" s="11">
@@ -4432,35 +5535,35 @@
         <v>0.45681915636647702</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" ref="I57:I86" si="12">E57/SQRT($B$6^2+E57^2)</f>
-        <v>5.0465428872622148E-2</v>
+        <f t="shared" ref="I57:I86" si="14">E57/SQRT($B$6^2+E57^2)</f>
+        <v>4.0390863190731228E-2</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" ref="J57:J86" si="13">ASIN(I57)</f>
-        <v>5.0486874010577255E-2</v>
+        <f t="shared" ref="J57:J86" si="15">ASIN(I57)</f>
+        <v>4.0401853683855474E-2</v>
       </c>
       <c r="K57" s="11">
         <f t="shared" si="4"/>
-        <v>4.5650178455117887E-2</v>
+        <v>3.6529275756552022E-2</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" ref="L57:L86" si="14">J57*57.2957795</f>
-        <v>2.8926848009543153</v>
+        <f t="shared" ref="L57:L86" si="16">J57*57.2957795</f>
+        <v>2.3148557000614458</v>
       </c>
       <c r="M57" s="15">
         <f t="shared" si="5"/>
-        <v>2.615562558900085</v>
+        <v>2.0929733290421004</v>
       </c>
       <c r="O57" s="9">
         <v>0.31830904481761602</v>
       </c>
     </row>
-    <row r="58" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="11">
         <v>51</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="E58" s="11">
@@ -4470,35 +5573,35 @@
         <v>0.466977729942607</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="12"/>
-        <v>5.1677151032118382E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.1361607925979975E-2</v>
       </c>
       <c r="J58" s="11">
-        <f t="shared" si="13"/>
-        <v>5.1700179596428822E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.1373410467713735E-2</v>
       </c>
       <c r="K58" s="11">
         <f t="shared" si="4"/>
-        <v>4.6663873007230038E-2</v>
+        <v>3.7340853436698442E-2</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="14"/>
-        <v>2.9622020902673847</v>
+        <f t="shared" si="16"/>
+        <v>2.3705218033211182</v>
       </c>
       <c r="M58" s="15">
         <f t="shared" si="5"/>
-        <v>2.673642978438254</v>
+        <v>2.1394733048508914</v>
       </c>
       <c r="O58" s="9">
         <v>0.32902426320064898</v>
       </c>
     </row>
-    <row r="59" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="11">
         <v>52</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
       <c r="E59" s="11">
@@ -4508,35 +5611,35 @@
         <v>0.47726230757920801</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" si="12"/>
-        <v>5.2874489709422302E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.2320894192015707E-2</v>
       </c>
       <c r="J59" s="11">
-        <f t="shared" si="13"/>
-        <v>5.2899157727391226E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.2333537581558466E-2</v>
       </c>
       <c r="K59" s="11">
         <f t="shared" si="4"/>
-        <v>4.769004337507661E-2</v>
+        <v>3.8162447562360355E-2</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="14"/>
-        <v>3.030898476884329</v>
+        <f t="shared" si="16"/>
+        <v>2.4255330347279371</v>
       </c>
       <c r="M59" s="15">
         <f t="shared" si="5"/>
-        <v>2.7324382095638255</v>
+        <v>2.1865471807133114</v>
       </c>
       <c r="O59" s="9">
         <v>0.33795853203353898</v>
       </c>
     </row>
-    <row r="60" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="11">
         <v>53</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="E60" s="11">
@@ -4546,35 +5649,35 @@
         <v>0.48749653443284402</v>
       </c>
       <c r="I60" s="11">
-        <f t="shared" si="12"/>
-        <v>5.4098061782358542E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.3301266026804182E-2</v>
       </c>
       <c r="J60" s="11">
-        <f t="shared" si="13"/>
-        <v>5.412448382808651E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.3314809099916488E-2</v>
       </c>
       <c r="K60" s="11">
         <f t="shared" si="4"/>
-        <v>4.8711090099486633E-2</v>
+        <v>3.8979968200932857E-2</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="14"/>
-        <v>3.1011044909653607</v>
+        <f t="shared" si="16"/>
+        <v>2.4817557512734085</v>
       </c>
       <c r="M60" s="15">
         <f t="shared" si="5"/>
-        <v>2.7909398775448193</v>
+        <v>2.2333876629576608</v>
       </c>
       <c r="O60" s="9">
         <v>0.34881245724486298</v>
       </c>
     </row>
-    <row r="61" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C61" s="11">
         <v>54</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
       <c r="E61" s="11">
@@ -4584,35 +5687,35 @@
         <v>0.49804951909765199</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="12"/>
-        <v>5.5351374462957875E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.4305539905639298E-2</v>
       </c>
       <c r="J61" s="11">
-        <f t="shared" si="13"/>
-        <v>5.537967752477202E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.4320047879308037E-2</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="4"/>
-        <v>4.9763832145647183E-2</v>
+        <v>3.9822896944280546E-2</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="14"/>
-        <v>3.1730217922404433</v>
+        <f t="shared" si="16"/>
+        <v>2.5393516907222762</v>
       </c>
       <c r="M61" s="15">
         <f t="shared" si="5"/>
-        <v>2.8512575536920131</v>
+        <v>2.2816839223707222</v>
       </c>
       <c r="O61" s="9">
         <v>0.35932910577643401</v>
       </c>
     </row>
-    <row r="62" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C62" s="11">
         <v>55</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="E62" s="11">
@@ -4622,35 +5725,35 @@
         <v>0.50833972560292595</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="12"/>
-        <v>5.6558561749822621E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.5272924912748355E-2</v>
       </c>
       <c r="J62" s="11">
-        <f t="shared" si="13"/>
-        <v>5.6588759161936467E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.528840471043534E-2</v>
       </c>
       <c r="K62" s="11">
         <f t="shared" si="4"/>
-        <v>5.0790253757441534E-2</v>
+        <v>4.0644781545633717E-2</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="14"/>
-        <v>3.2422970671209166</v>
+        <f t="shared" si="16"/>
+        <v>2.5948344501958647</v>
       </c>
       <c r="M62" s="15">
         <f t="shared" si="5"/>
-        <v>2.9100671800354165</v>
+        <v>2.3287744412642986</v>
       </c>
       <c r="O62" s="9">
         <v>0.36957868591675103</v>
       </c>
     </row>
-    <row r="63" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C63" s="11">
         <v>56</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="E63" s="11">
@@ -4660,35 +5763,35 @@
         <v>0.51884099291429497</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="12"/>
-        <v>5.7834836247995854E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.629575096849789E-2</v>
       </c>
       <c r="J63" s="11">
-        <f t="shared" si="13"/>
-        <v>5.7867126526251672E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.6312304526387162E-2</v>
       </c>
       <c r="K63" s="11">
         <f t="shared" si="4"/>
-        <v>5.1837617708481366E-2</v>
+        <v>4.1483467045928361E-2</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="14"/>
-        <v>3.3155421217467169</v>
+        <f t="shared" si="16"/>
+        <v>2.6534995882807308</v>
       </c>
       <c r="M63" s="15">
         <f t="shared" si="5"/>
-        <v>2.9700767140304438</v>
+        <v>2.376827580759028</v>
       </c>
       <c r="O63" s="9">
         <v>0.38049207338934299</v>
       </c>
     </row>
-    <row r="64" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="11">
         <v>57</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="E64" s="11">
@@ -4698,35 +5801,35 @@
         <v>0.52927153148107597</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="12"/>
-        <v>5.9113337273644331E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7320443251928537E-2</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="13"/>
-        <v>5.9147818998864718E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.7338121252442619E-2</v>
       </c>
       <c r="K64" s="11">
         <f t="shared" si="4"/>
-        <v>5.2877814727156768E-2</v>
+        <v>4.2316445986361952E-2</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="14"/>
-        <v>3.3889203952648637</v>
+        <f t="shared" si="16"/>
+        <v>2.7122745572242164</v>
       </c>
       <c r="M64" s="15">
         <f t="shared" si="5"/>
-        <v>3.0296756130490268</v>
+        <v>2.4245537584582544</v>
       </c>
       <c r="O64" s="9">
         <v>0.39141789653386999</v>
       </c>
     </row>
-    <row r="65" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C65" s="11">
         <v>58</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="E65" s="11">
@@ -4736,35 +5839,35 @@
         <v>0.53995375910125898</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" si="12"/>
-        <v>6.0390325571669852E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.8344006712814511E-2</v>
       </c>
       <c r="J65" s="11">
-        <f t="shared" si="13"/>
-        <v>6.0427093111156523E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.8362857688086111E-2</v>
       </c>
       <c r="K65" s="11">
         <f t="shared" si="4"/>
-        <v>5.3942992995782042E-2</v>
+        <v>4.3169463814164803E-2</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="14"/>
-        <v>3.4622174027227932</v>
+        <f t="shared" si="16"/>
+        <v>2.7709876300864615</v>
       </c>
       <c r="M65" s="15">
         <f t="shared" si="5"/>
-        <v>3.0907058322563725</v>
+        <v>2.4734280798296155</v>
       </c>
       <c r="O65" s="9">
         <v>0.402418661821001</v>
       </c>
     </row>
-    <row r="66" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="11">
         <v>59</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="E66" s="11">
@@ -4774,35 +5877,35 @@
         <v>0.55071388148162703</v>
       </c>
       <c r="I66" s="11">
-        <f t="shared" si="12"/>
-        <v>6.17144919150307E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.9405475673410935E-2</v>
       </c>
       <c r="J66" s="11">
-        <f t="shared" si="13"/>
-        <v>6.1753734319948649E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.9425596761749971E-2</v>
       </c>
       <c r="K66" s="11">
         <f t="shared" si="4"/>
-        <v>5.5015814678126246E-2</v>
+        <v>4.4028638294225764E-2</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="14"/>
-        <v>3.5382283448973602</v>
+        <f t="shared" si="16"/>
+        <v>2.8318780937171404</v>
       </c>
       <c r="M66" s="15">
         <f t="shared" si="5"/>
-        <v>3.152173986810785</v>
+        <v>2.5226551513912154</v>
       </c>
       <c r="O66" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="11">
         <v>60</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="E67" s="11">
@@ -4812,35 +5915,35 @@
         <v>0.56124707115587502</v>
       </c>
       <c r="I67" s="11">
-        <f t="shared" si="12"/>
-        <v>6.300005768364203E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0436091645930069E-2</v>
       </c>
       <c r="J67" s="11">
-        <f t="shared" si="13"/>
-        <v>6.3041806907521675E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.0457499376743632E-2</v>
       </c>
       <c r="K67" s="11">
         <f t="shared" si="4"/>
-        <v>5.6065887624129444E-2</v>
+        <v>4.4869629659123562E-2</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="14"/>
-        <v>3.6120294678549389</v>
+        <f t="shared" si="16"/>
+        <v>2.8910017584112908</v>
       </c>
       <c r="M67" s="15">
         <f t="shared" si="5"/>
-        <v>3.2123387347838994</v>
+        <v>2.5708404071958038</v>
       </c>
       <c r="O67" s="9">
         <v>0.42446368564767001</v>
       </c>
     </row>
-    <row r="68" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C68" s="11">
         <v>61</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="E68" s="11">
@@ -4850,35 +5953,35 @@
         <v>0.57181887182256297</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="12"/>
-        <v>6.4316732774940225E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.1491741027492599E-2</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="13"/>
-        <v>6.4361158072842067E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.1514522414282941E-2</v>
       </c>
       <c r="K68" s="11">
         <f t="shared" si="4"/>
-        <v>5.7119685328927791E-2</v>
+        <v>4.5713639946014129E-2</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="14"/>
-        <v>3.6876227213062043</v>
+        <f t="shared" si="16"/>
+        <v>2.9515647172965633</v>
       </c>
       <c r="M68" s="15">
         <f t="shared" si="5"/>
-        <v>3.2727168957156318</v>
+        <v>2.6191986344892175</v>
       </c>
       <c r="O68" s="9">
         <v>0.435730924965885</v>
       </c>
     </row>
-    <row r="69" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="11">
         <v>62</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="E69" s="11">
@@ -4888,35 +5991,35 @@
         <v>0.582471386207708</v>
       </c>
       <c r="I69" s="11">
-        <f t="shared" si="12"/>
-        <v>6.5688476758842831E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.2591644985789096E-2</v>
       </c>
       <c r="J69" s="11">
-        <f t="shared" si="13"/>
-        <v>6.5735809424139938E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.2615918916748675E-2</v>
       </c>
       <c r="K69" s="11">
         <f t="shared" si="4"/>
-        <v>5.8181400133522701E-2</v>
+        <v>4.656402817320842E-2</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="14"/>
-        <v>3.766384442019544</v>
+        <f t="shared" si="16"/>
+        <v>3.014670088443911</v>
       </c>
       <c r="M69" s="15">
         <f t="shared" si="5"/>
-        <v>3.3335486730515873</v>
+        <v>2.6679222908439377</v>
       </c>
       <c r="O69" s="9">
         <v>0.44702753543554302</v>
       </c>
     </row>
-    <row r="70" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C70" s="11">
         <v>63</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="E70" s="11">
@@ -4926,35 +6029,35 @@
         <v>0.59314636759360995</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7034640201843382E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.3671141943906264E-2</v>
       </c>
       <c r="J70" s="11">
-        <f t="shared" si="13"/>
-        <v>6.7084946952447974E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.3696942841761977E-2</v>
       </c>
       <c r="K70" s="11">
         <f t="shared" si="4"/>
-        <v>5.9245222461278634E-2</v>
+        <v>4.7416142332798811E-2</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="14"/>
-        <v>3.8436843283566562</v>
+        <f t="shared" si="16"/>
+        <v>3.0766081968856978</v>
       </c>
       <c r="M70" s="15">
         <f t="shared" si="5"/>
-        <v>3.394501202569868</v>
+        <v>2.7167448358406565</v>
       </c>
       <c r="O70" s="9">
         <v>0.45832867446716902</v>
       </c>
     </row>
-    <row r="71" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C71" s="11">
         <v>64</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="E71" s="11">
@@ -4964,35 +6067,35 @@
         <v>0.60281997825522404</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="12"/>
-        <v>6.8406218686016054E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.4771127782924936E-2</v>
       </c>
       <c r="J71" s="11">
-        <f t="shared" si="13"/>
-        <v>6.845968147373048E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.4798549252495228E-2</v>
       </c>
       <c r="K71" s="11">
         <f t="shared" si="4"/>
-        <v>6.0209136651628636E-2</v>
+        <v>4.8188264118423342E-2</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" si="14"/>
-        <v>3.9224508143590966</v>
+        <f t="shared" si="16"/>
+        <v>3.1397255948908565</v>
       </c>
       <c r="M71" s="15">
         <f t="shared" si="5"/>
-        <v>3.4497294174770827</v>
+        <v>2.7609841554169456</v>
       </c>
       <c r="O71" s="9">
         <v>0.46983585689363</v>
       </c>
     </row>
-    <row r="72" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C72" s="11">
         <v>65</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="E72" s="11">
@@ -5002,35 +6105,35 @@
         <v>0.61390029356233899</v>
       </c>
       <c r="I72" s="11">
-        <f t="shared" si="12"/>
-        <v>6.9763410570404222E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.5859685677298744E-2</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="13"/>
-        <v>6.9820123846765586E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.5888776414501844E-2</v>
       </c>
       <c r="K72" s="11">
         <f t="shared" si="4"/>
-        <v>6.1313082345361897E-2</v>
+        <v>4.9072594613420499E-2</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="14"/>
-        <v>4.0003984205869729</v>
+        <f t="shared" si="16"/>
+        <v>3.2021910099700985</v>
       </c>
       <c r="M72" s="15">
         <f t="shared" si="5"/>
-        <v>3.5129808465251982</v>
+        <v>2.8116525604634286</v>
       </c>
       <c r="O72" s="9">
         <v>0.481520894349447</v>
       </c>
     </row>
-    <row r="73" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C73" s="11">
         <v>66</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="E73" s="11">
@@ -5040,35 +6143,35 @@
         <v>0.62565655279481802</v>
       </c>
       <c r="I73" s="11">
-        <f t="shared" si="12"/>
-        <v>7.1135655623899965E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.6960430595629358E-2</v>
       </c>
       <c r="J73" s="11">
-        <f t="shared" si="13"/>
-        <v>7.1195787058717208E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.6991276917272474E-2</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K86" si="15">ASIN(H73/SQRT($B$6^2+H73^2))</f>
-        <v>6.2484209540012506E-2</v>
+        <f t="shared" ref="K73:K86" si="17">ASIN(H73/SQRT($B$6^2+H73^2))</f>
+        <v>5.0010788825126828E-2</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="14"/>
-        <v>4.0792181166452153</v>
+        <f t="shared" si="16"/>
+        <v>3.2653596356754835</v>
       </c>
       <c r="M73" s="15">
-        <f t="shared" ref="M73:M86" si="16">K73*57.2957795</f>
-        <v>3.5800814920363533</v>
+        <f t="shared" ref="M73:M86" si="18">K73*57.2957795</f>
+        <v>2.865407129145531</v>
       </c>
       <c r="O73" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="11">
         <v>67</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="E74" s="11">
@@ -5078,35 +6181,35 @@
         <v>0.63555235413205202</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="12"/>
-        <v>7.2536070010875142E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.8083891399257209E-2</v>
       </c>
       <c r="J74" s="11">
-        <f t="shared" si="13"/>
-        <v>7.2599828950952877E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.8116601059051039E-2</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="15"/>
-        <v>6.3469869997714798E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.080044319197722E-2</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="14"/>
-        <v>4.1596637913115124</v>
+        <f t="shared" si="16"/>
+        <v>3.3298359595688547</v>
       </c>
       <c r="M74" s="15">
-        <f t="shared" si="16"/>
-        <v>3.6365556762827325</v>
+        <f t="shared" si="18"/>
+        <v>2.9106509916298031</v>
       </c>
       <c r="O74" s="9">
         <v>0.50529813533427304</v>
       </c>
     </row>
-    <row r="75" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C75" s="11">
         <v>68</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="E75" s="11">
@@ -5116,35 +6219,35 @@
         <v>0.64661319385565896</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="12"/>
-        <v>7.3977132282255373E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.9240090285340337E-2</v>
       </c>
       <c r="J75" s="11">
-        <f t="shared" si="13"/>
-        <v>7.4044773734952676E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.9274794532388861E-2</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="15"/>
-        <v>6.4571426603803689E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.1682988937288656E-2</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" si="14"/>
-        <v>4.2424530290452402</v>
+        <f t="shared" si="16"/>
+        <v>3.3961955574355578</v>
       </c>
       <c r="M75" s="15">
-        <f t="shared" si="16"/>
-        <v>3.6996702206919703</v>
+        <f t="shared" si="18"/>
+        <v>2.9612171380518304</v>
       </c>
       <c r="O75" s="9">
         <v>0.51746292183324405</v>
       </c>
     </row>
-    <row r="76" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="11">
         <v>69</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="E76" s="11">
@@ -5154,35 +6257,35 @@
         <v>0.65904925277951198</v>
       </c>
       <c r="I76" s="11">
-        <f t="shared" si="12"/>
-        <v>7.5371818649337105E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.0359207660814297E-2</v>
       </c>
       <c r="J76" s="11">
-        <f t="shared" si="13"/>
-        <v>7.544336513568381E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.0395918330638093E-2</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="15"/>
-        <v>6.5809754725939751E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.2675167297530245E-2</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="14"/>
-        <v>4.322586413552127</v>
+        <f t="shared" si="16"/>
+        <v>3.4604312193722482</v>
       </c>
       <c r="M76" s="15">
-        <f t="shared" si="16"/>
-        <v>3.7706211957265272</v>
+        <f t="shared" si="18"/>
+        <v>3.0180647706049037</v>
       </c>
       <c r="O76" s="9">
         <v>0.529485559603177</v>
       </c>
     </row>
-    <row r="77" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C77" s="11">
         <v>70</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="E77" s="11">
@@ -5192,35 +6295,35 @@
         <v>0.67008336831019399</v>
       </c>
       <c r="I77" s="11">
-        <f t="shared" si="12"/>
-        <v>7.6837222104529659E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.1535206705664258E-2</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="13"/>
-        <v>7.6913030983022726E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.1574107708912057E-2</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" si="15"/>
-        <v>6.6908314398499341E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.355540843819296E-2</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="14"/>
-        <v>4.4067920638799389</v>
+        <f t="shared" si="16"/>
+        <v>3.5279364981990757</v>
       </c>
       <c r="M77" s="15">
-        <f t="shared" si="16"/>
-        <v>3.8335640284930936</v>
+        <f t="shared" si="18"/>
+        <v>3.0684988729071434</v>
       </c>
       <c r="O77" s="9">
         <v>0.54177397664815297</v>
       </c>
     </row>
-    <row r="78" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C78" s="11">
         <v>71</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="E78" s="11">
@@ -5230,35 +6333,35 @@
         <v>0.67996879498192198</v>
       </c>
       <c r="I78" s="11">
-        <f t="shared" si="12"/>
-        <v>7.8261812746885054E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.2678590477231413E-2</v>
       </c>
       <c r="J78" s="11">
-        <f t="shared" si="13"/>
-        <v>7.8341924860379164E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.2719703112029332E-2</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="15"/>
-        <v>6.7892373023384023E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.4343942986872146E-2</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" si="14"/>
-        <v>4.4886616524058534</v>
+        <f t="shared" si="16"/>
+        <v>3.5935742798122967</v>
       </c>
       <c r="M78" s="15">
-        <f t="shared" si="16"/>
-        <v>3.8899464344795596</v>
+        <f t="shared" si="18"/>
+        <v>3.1136785745363982</v>
       </c>
       <c r="O78" s="9">
         <v>0.55436361868686501</v>
       </c>
     </row>
-    <row r="79" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="11">
         <v>72</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="E79" s="11">
@@ -5268,35 +6371,35 @@
         <v>0.69064758763367395</v>
       </c>
       <c r="I79" s="11">
-        <f t="shared" si="12"/>
-        <v>7.9770290883569128E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.3889453252536768E-2</v>
       </c>
       <c r="J79" s="11">
-        <f t="shared" si="13"/>
-        <v>7.9855134429797442E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.3932997942353603E-2</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="15"/>
-        <v>6.8955260367545776E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.5195686226695156E-2</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="14"/>
-        <v>4.5753621742325326</v>
+        <f t="shared" si="16"/>
+        <v>3.6630909528790458</v>
       </c>
       <c r="M79" s="15">
-        <f t="shared" si="16"/>
-        <v>3.9508453933839918</v>
+        <f t="shared" si="18"/>
+        <v>3.1624798673959127</v>
       </c>
       <c r="O79" s="9">
         <v>0.56649241130501504</v>
       </c>
     </row>
-    <row r="80" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C80" s="11">
         <v>73</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="E80" s="11">
@@ -5306,35 +6409,35 @@
         <v>0.70389595461113696</v>
       </c>
       <c r="I80" s="11">
-        <f t="shared" si="12"/>
-        <v>8.1277157670765418E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.5099180069334892E-2</v>
       </c>
       <c r="J80" s="11">
-        <f t="shared" si="13"/>
-        <v>8.1366910565416964E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.5145248649993118E-2</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="15"/>
-        <v>7.0273686845874553E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.6252267825052056E-2</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" si="14"/>
-        <v>4.6619805663523506</v>
+        <f t="shared" si="16"/>
+        <v>3.7325478021226783</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="16"/>
-        <v>4.0263856661732786</v>
+        <f t="shared" si="18"/>
+        <v>3.2230175336791271</v>
       </c>
       <c r="O80" s="9">
         <v>0.57931804530247599</v>
       </c>
     </row>
-    <row r="81" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="11">
         <v>74</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="E81" s="11">
@@ -5344,35 +6447,35 @@
         <v>0.71529334218748597</v>
       </c>
       <c r="I81" s="11">
-        <f t="shared" si="12"/>
-        <v>8.2764209928737217E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6293156837811534E-2</v>
       </c>
       <c r="J81" s="11">
-        <f t="shared" si="13"/>
-        <v>8.2858990336865321E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6341810455137054E-2</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="15"/>
-        <v>7.140771537101194E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.7161129908935855E-2</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="14"/>
-        <v>4.7474704399336662</v>
+        <f t="shared" si="16"/>
+        <v>3.8011057434683275</v>
       </c>
       <c r="M81" s="15">
-        <f t="shared" si="16"/>
-        <v>4.0913607144962612</v>
+        <f t="shared" si="18"/>
+        <v>3.2750914952332439</v>
       </c>
       <c r="O81" s="9">
         <v>0.59216891173951303</v>
       </c>
     </row>
-    <row r="82" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="11">
         <v>75</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="E82" s="11">
@@ -5382,35 +6485,35 @@
         <v>0.72613386485810105</v>
       </c>
       <c r="I82" s="11">
-        <f t="shared" si="12"/>
-        <v>8.4276676906659978E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.7507702695911928E-2</v>
       </c>
       <c r="J82" s="11">
-        <f t="shared" si="13"/>
-        <v>8.4376760454718994E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.7559083498767172E-2</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" si="15"/>
-        <v>7.2486165760294791E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.8025498215140817E-2</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" si="14"/>
-        <v>4.8344322619378994</v>
+        <f t="shared" si="16"/>
+        <v>3.8708503513674524</v>
       </c>
       <c r="M82" s="15">
-        <f t="shared" si="16"/>
-        <v>4.1531513702023002</v>
+        <f t="shared" si="18"/>
+        <v>3.3246161511123518</v>
       </c>
       <c r="O82" s="9">
         <v>0.60500749198832404</v>
       </c>
     </row>
-    <row r="83" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="11">
         <v>76</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="E83" s="11">
@@ -5420,35 +6523,35 @@
         <v>0.73582547655238595</v>
       </c>
       <c r="I83" s="11">
-        <f t="shared" si="12"/>
-        <v>8.5794161261393678E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.8726446100004973E-2</v>
       </c>
       <c r="J83" s="11">
-        <f t="shared" si="13"/>
-        <v>8.5899761376711847E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.8780664303042763E-2</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="15"/>
-        <v>7.3450175848438201E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.8798184740795026E-2</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="14"/>
-        <v>4.9216937869426989</v>
+        <f t="shared" si="16"/>
+        <v>3.9408417757706595</v>
       </c>
       <c r="M83" s="15">
-        <f t="shared" si="16"/>
-        <v>4.2083850796483411</v>
+        <f t="shared" si="18"/>
+        <v>3.3688878279088565</v>
       </c>
       <c r="O83" s="9">
         <v>0.61832354025886505</v>
       </c>
     </row>
-    <row r="84" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C84" s="11">
         <v>77</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="E84" s="11">
@@ -5458,35 +6561,35 @@
         <v>0.74785411976607497</v>
       </c>
       <c r="I84" s="11">
-        <f t="shared" si="12"/>
-        <v>8.7415596381401436E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0028865874443944E-2</v>
       </c>
       <c r="J84" s="11">
-        <f t="shared" si="13"/>
-        <v>8.7527311811549241E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.0086229974236663E-2</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="15"/>
-        <v>7.4646456581395654E-2</v>
+        <f t="shared" si="17"/>
+        <v>5.97570987452027E-2</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="14"/>
-        <v>5.014945557782271</v>
+        <f t="shared" si="16"/>
+        <v>4.0156451785901544</v>
       </c>
       <c r="M84" s="15">
-        <f t="shared" si="16"/>
-        <v>4.2769269167439692</v>
+        <f t="shared" si="18"/>
+        <v>3.4238295532648606</v>
       </c>
       <c r="O84" s="9">
         <v>0.63125454927698899</v>
       </c>
     </row>
-    <row r="85" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C85" s="11">
         <v>78</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="E85" s="11">
@@ -5496,35 +6599,35 @@
         <v>0.76061699103217795</v>
       </c>
       <c r="I85" s="11">
-        <f t="shared" si="12"/>
-        <v>8.894125368044381E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.1254534498089481E-2</v>
       </c>
       <c r="J85" s="11">
-        <f t="shared" si="13"/>
-        <v>8.9058935402749784E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.1314968366327725E-2</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="15"/>
-        <v>7.5915524178641391E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.0774424504036174E-2</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="14"/>
-        <v>5.1027011253406958</v>
+        <f t="shared" si="16"/>
+        <v>4.0860467025665885</v>
       </c>
       <c r="M85" s="15">
-        <f t="shared" si="16"/>
-        <v>4.349639133966356</v>
+        <f t="shared" si="18"/>
+        <v>3.4821180256226536</v>
       </c>
       <c r="O85" s="9">
         <v>0.64450174571409902</v>
       </c>
     </row>
-    <row r="86" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="11">
         <v>79</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="E86" s="11">
@@ -5534,110 +6637,110 @@
         <v>0.76900795840270897</v>
       </c>
       <c r="I86" s="11">
-        <f t="shared" si="12"/>
-        <v>9.0528044760046916E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.2529507384131997E-2</v>
       </c>
       <c r="J86" s="11">
-        <f t="shared" si="13"/>
-        <v>9.0652154162990994E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.259324899278663E-2</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="15"/>
-        <v>7.6749741214428291E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.1443198244903754E-2</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="14"/>
-        <v>5.1939858361227396</v>
+        <f t="shared" si="16"/>
+        <v>4.1592867874793003</v>
       </c>
       <c r="M86" s="15">
-        <f t="shared" si="16"/>
-        <v>4.3974362493039454</v>
+        <f t="shared" si="18"/>
+        <v>3.5204359384147925</v>
       </c>
       <c r="O86" s="9">
         <v>0.65830659159541904</v>
       </c>
     </row>
-    <row r="87" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O87" s="9">
         <v>0.67185764587691599</v>
       </c>
     </row>
-    <row r="88" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O88" s="9">
         <v>0.68566832989276305</v>
       </c>
     </row>
-    <row r="89" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O89" s="9">
         <v>0.69933799716145695</v>
       </c>
     </row>
-    <row r="90" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O90" s="9">
         <v>0.71316324812601495</v>
       </c>
     </row>
-    <row r="91" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O91" s="9">
         <v>0.72727649932378402</v>
       </c>
     </row>
-    <row r="92" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O92" s="9">
         <v>0.74180391154708702</v>
       </c>
     </row>
-    <row r="93" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O93" s="9">
         <v>0.75586825458751405</v>
       </c>
     </row>
-    <row r="94" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O94" s="9">
         <v>0.77065053324920296</v>
       </c>
     </row>
-    <row r="95" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O95" s="9">
         <v>0.78502592712094099</v>
       </c>
     </row>
-    <row r="96" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O96" s="9">
         <v>0.80025309720278404</v>
       </c>
     </row>
-    <row r="97" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O97" s="9">
         <v>0.81546952594269795</v>
       </c>
     </row>
-    <row r="98" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O98" s="9">
         <v>0.83049138447736703</v>
       </c>
     </row>
-    <row r="99" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O99" s="9">
         <v>0.84577570699788895</v>
       </c>
     </row>
-    <row r="100" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O100" s="9">
         <v>0.86111664999430604</v>
       </c>
     </row>
-    <row r="101" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O101" s="9">
         <v>0.87751515351668996</v>
       </c>
     </row>
-    <row r="102" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O102" s="9">
         <v>0.89295141621534901</v>
       </c>
     </row>
-    <row r="103" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O103" s="9">
         <v>0.90901293967414998</v>
       </c>
